--- a/timing_analysis.xlsx
+++ b/timing_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1418fc52008665ae/Documents/2XC3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC104871315B59F85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9636A2A3-BC51-41EA-8C21-A4374A17F291}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_F25DC773A252ABDACC104871315B59F85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E53D3845-9F57-49D0-A27A-8AA4CF1F1F8E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>n</t>
   </si>
@@ -410,8 +410,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1616891891891892"/>
-                  <c:y val="0.145642333647346"/>
+                  <c:x val="-0.57853732638888888"/>
+                  <c:y val="0.2585220634845794"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -725,7 +725,610 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>basic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3888888888888889E-4"/>
+                  <c:y val="-0.19722659667541556"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4564600005969568E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2791399999136901E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.751519200003028E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9433107599991192E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5898710220000066E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0757046498999958E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7BC-4344-A538-1723CA38D802}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bottom-up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.25847222222222216"/>
+                  <c:y val="-4.2083333333333334E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5320000713691084E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3031800112221337E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8882399998838037E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4696730000432561E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3140382000012281E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2792365840007498E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E7BC-4344-A538-1723CA38D802}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1754654048"/>
+        <c:axId val="1754650720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1754654048"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1754650720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1754650720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1754654048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1281,6 +1884,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1314,6 +2433,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F421D698-E75A-4D5C-9E27-6DA3FB2C5275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1585,18 +2740,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H32"/>
+  <dimension ref="B1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1608,7 +2765,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1627,8 +2784,17 @@
       <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>10</v>
       </c>
@@ -1650,8 +2816,20 @@
         <f ca="1">AVERAGE(OFFSET($D$3,(ROW()-ROW($H$3))*5,,5,))</f>
         <v>2.5320000713691083E-4</v>
       </c>
+      <c r="J3">
+        <f ca="1">F3</f>
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <f ca="1">G3/F3</f>
+        <v>4.4564600005969568E-6</v>
+      </c>
+      <c r="L3">
+        <f ca="1">H3/F3</f>
+        <v>2.5320000713691084E-5</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
@@ -1673,8 +2851,20 @@
         <f t="shared" ref="H4:H8" ca="1" si="2">AVERAGE(OFFSET($D$3,(ROW()-ROW($H$3))*5,,5,))</f>
         <v>2.3031800112221336E-3</v>
       </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J8" ca="1" si="3">F4</f>
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K8" ca="1" si="4">G4/F4</f>
+        <v>5.2791399999136901E-6</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L8" ca="1" si="5">H4/F4</f>
+        <v>2.3031800112221337E-5</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10</v>
       </c>
@@ -1696,8 +2886,20 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.8882399998838036E-2</v>
       </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.751519200003028E-6</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.8882399998838037E-5</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>10</v>
       </c>
@@ -1719,8 +2921,20 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.34696730000432563</v>
       </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.9433107599991192E-6</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.4696730000432561E-5</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10</v>
       </c>
@@ -1742,8 +2956,20 @@
         <f t="shared" ca="1" si="2"/>
         <v>4.3140382000012281</v>
       </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.5898710220000066E-6</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.3140382000012281E-5</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>100</v>
       </c>
@@ -1765,8 +2991,20 @@
         <f t="shared" ca="1" si="2"/>
         <v>42.792365840007498</v>
       </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1000000</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0757046498999958E-5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.2792365840007498E-5</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>100</v>
       </c>
@@ -1777,7 +3015,7 @@
         <v>1.77830000757239E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>100</v>
       </c>
@@ -1788,7 +3026,7 @@
         <v>2.8450000099837702E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>100</v>
       </c>
@@ -1799,7 +3037,7 @@
         <v>1.79720000596717E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>100</v>
       </c>
@@ -1810,7 +3048,7 @@
         <v>1.85280002187937E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1000</v>
       </c>
@@ -1821,7 +3059,7 @@
         <v>3.42081999988295E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1000</v>
       </c>
@@ -1832,7 +3070,7 @@
         <v>2.4713899998459899E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1000</v>
       </c>
@@ -1843,7 +3081,7 @@
         <v>2.5427000015042701E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1000</v>
       </c>

--- a/timing_analysis.xlsx
+++ b/timing_analysis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1418fc52008665ae/Documents/2XC3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_F25DC773A252ABDACC104871315B59F85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E53D3845-9F57-49D0-A27A-8AA4CF1F1F8E}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="11_F25DC773A252ABDACC104871315B59F85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E07BFE68-AD96-436E-9DC5-09331B67A046}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -740,6 +740,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>T(n)/n for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Top-down and Bottom-up</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2742,7 +2772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:L8"/>
     </sheetView>
   </sheetViews>

--- a/timing_analysis.xlsx
+++ b/timing_analysis.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1418fc52008665ae/Documents/2XC3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_F25DC773A252ABDACC104871315B59F85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E07BFE68-AD96-436E-9DC5-09331B67A046}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77516B3-EDA3-A34E-8336-D3A242834D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28080" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <definedNames>
+    <definedName name="_3waymerge" localSheetId="0">Sheet1!$H$59:$I$118</definedName>
+    <definedName name="mergebasic" localSheetId="0">Sheet1!$B$59:$C$118</definedName>
+    <definedName name="mergebottom" localSheetId="0">Sheet1!$E$59:$F$118</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +36,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{0E500474-057F-A64D-B5AE-69BD78A0EDE0}" name="3waymerge" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/3waymerge.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{C50792B8-6C91-6C48-8C76-124C5B1ABEB6}" name="mergebasic" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/mergebasic.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{C8F2E72E-A544-C540-BA79-B09B16C26630}" name="mergebottom" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/olegglotov/Documents/MAC/Python/2XC3 - Pratice and Exp/mergebottom.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -107,13 +141,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,22 +365,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.4564600005969567E-5</c:v>
+                  <c:v>5.203939999995906E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2791399999136898E-4</c:v>
+                  <c:v>7.0776219999988343E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7515192000030281E-3</c:v>
+                  <c:v>1.0020999399999878E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.943310759999119E-2</c:v>
+                  <c:v>0.16058819859999957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85898710220000063</c:v>
+                  <c:v>1.0134512573999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.757046498999959</c:v>
+                  <c:v>12.37126439839998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -478,22 +512,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5320000713691083E-4</c:v>
+                  <c:v>5.7772600030148115E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3031800112221336E-3</c:v>
+                  <c:v>5.4842339998231108E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8882399998838036E-2</c:v>
+                  <c:v>6.4163679999865008E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34696730000432563</c:v>
+                  <c:v>6.999713980003433E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3140382000012281</c:v>
+                  <c:v>1.1681004553999814</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.792365840007498</c:v>
+                  <c:v>11.61084580899994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,22 +959,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.4564600005969568E-6</c:v>
+                  <c:v>5.203939999995906E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2791399999136901E-6</c:v>
+                  <c:v>7.0776219999988345E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.751519200003028E-6</c:v>
+                  <c:v>1.0020999399999878E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9433107599991192E-6</c:v>
+                  <c:v>1.6058819859999956E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5898710220000066E-6</c:v>
+                  <c:v>1.0134512573999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0757046498999958E-5</c:v>
+                  <c:v>1.2371264398399979E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,22 +1106,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5320000713691084E-5</c:v>
+                  <c:v>5.7772600030148117E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3031800112221337E-5</c:v>
+                  <c:v>5.4842339998231112E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8882399998838037E-5</c:v>
+                  <c:v>6.4163679999865009E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4696730000432561E-5</c:v>
+                  <c:v>6.9997139800034334E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3140382000012281E-5</c:v>
+                  <c:v>1.1681004553999813E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2792365840007498E-5</c:v>
+                  <c:v>1.161084580899994E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2434,16 +2468,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2470,16 +2504,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>208280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2505,6 +2539,18 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="3waymerge" connectionId="1" xr16:uid="{2A9012BB-1C5D-F847-A154-24C70B1794C3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="mergebottom" connectionId="3" xr16:uid="{BAF8A746-D601-FE48-BCF4-15CE7E8C7BA2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="mergebasic" connectionId="2" xr16:uid="{AD43668B-2C72-2542-ABFE-AAC7DED748FB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2770,81 +2816,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L32"/>
+  <dimension ref="B1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:L8"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>3.9580999981580997E-5</v>
-      </c>
-      <c r="D3">
-        <v>3.1040000612847502E-4</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="C3" s="5">
+        <v>5.6548000000322599E-5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.8567000059592802E-5</v>
+      </c>
+      <c r="F3" s="3">
         <f ca="1">AVERAGE(OFFSET($B$3,(ROW()-ROW($F$3))*5,,5,))</f>
         <v>10</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f ca="1">AVERAGE(OFFSET($C$3,(ROW()-ROW($G$3))*5,,5,))</f>
-        <v>4.4564600005969567E-5</v>
-      </c>
-      <c r="H3" s="4">
+        <v>5.203939999995906E-5</v>
+      </c>
+      <c r="H3" s="3">
         <f ca="1">AVERAGE(OFFSET($D$3,(ROW()-ROW($H$3))*5,,5,))</f>
-        <v>2.5320000713691083E-4</v>
+        <v>5.7772600030148115E-5</v>
       </c>
       <c r="J3">
         <f ca="1">F3</f>
@@ -2852,34 +2904,34 @@
       </c>
       <c r="K3">
         <f ca="1">G3/F3</f>
-        <v>4.4564600005969568E-6</v>
+        <v>5.203939999995906E-6</v>
       </c>
       <c r="L3">
         <f ca="1">H3/F3</f>
-        <v>2.5320000713691084E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+        <v>5.7772600030148117E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>4.4440000010581503E-5</v>
-      </c>
-      <c r="D4">
-        <v>2.5829998776316599E-4</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="C4" s="5">
+        <v>5.2012999999906303E-5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.7060000042620198E-5</v>
+      </c>
+      <c r="F4" s="3">
         <f t="shared" ref="F4:F8" ca="1" si="0">AVERAGE(OFFSET($B$3,(ROW()-ROW($F$3))*5,,5,))</f>
         <v>100</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" ref="G4:G8" ca="1" si="1">AVERAGE(OFFSET($C$3,(ROW()-ROW($G$3))*5,,5,))</f>
-        <v>5.2791399999136898E-4</v>
-      </c>
-      <c r="H4" s="4">
+        <v>7.0776219999988343E-4</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H8" ca="1" si="2">AVERAGE(OFFSET($D$3,(ROW()-ROW($H$3))*5,,5,))</f>
-        <v>2.3031800112221336E-3</v>
+        <v>5.4842339998231108E-4</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J8" ca="1" si="3">F4</f>
@@ -2887,34 +2939,34 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K8" ca="1" si="4">G4/F4</f>
-        <v>5.2791399999136901E-6</v>
+        <v>7.0776219999988345E-6</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L8" ca="1" si="5">H4/F4</f>
-        <v>2.3031800112221337E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+        <v>5.4842339998231112E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
-        <v>6.1141000003317404E-5</v>
-      </c>
-      <c r="D5">
-        <v>2.4379999376833401E-4</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="C5" s="5">
+        <v>4.7063999999874499E-5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.7686999955185402E-5</v>
+      </c>
+      <c r="F5" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7515192000030281E-3</v>
-      </c>
-      <c r="H5" s="4">
+        <v>1.0020999399999878E-2</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8882399998838036E-2</v>
+        <v>6.4163679999865008E-3</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
@@ -2922,34 +2974,34 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>6.751519200003028E-6</v>
+        <v>1.0020999399999878E-5</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8882399998838037E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+        <v>6.4163679999865009E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
-        <v>3.8712000019813698E-5</v>
-      </c>
-      <c r="D6">
-        <v>1.7140002455562299E-4</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="C6" s="5">
+        <v>5.5179999999932498E-5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.74660000691073E-5</v>
+      </c>
+      <c r="F6" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.943310759999119E-2</v>
-      </c>
-      <c r="H6" s="4">
+        <v>0.16058819859999957</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34696730000432563</v>
+        <v>6.999713980003433E-2</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
@@ -2957,34 +3009,34 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9433107599991192E-6</v>
+        <v>1.6058819859999956E-5</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4696730000432561E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+        <v>6.9997139800034334E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>3.8949000014554197E-5</v>
-      </c>
-      <c r="D7">
-        <v>2.8210002346895603E-4</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="C7" s="5">
+        <v>4.9391999999759399E-5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.80830000242349E-5</v>
+      </c>
+      <c r="F7" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>100000</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85898710220000063</v>
-      </c>
-      <c r="H7" s="4">
+        <v>1.0134512573999999</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3140382000012281</v>
+        <v>1.1681004553999814</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
@@ -2992,310 +3044,1060 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>8.5898710220000066E-6</v>
+        <v>1.0134512573999999E-5</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3140382000012281E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1.1681004553999813E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>100</v>
       </c>
-      <c r="C8">
-        <v>6.5132899999298301E-4</v>
-      </c>
-      <c r="D8">
-        <v>3.2426000107079701E-3</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="C8" s="5">
+        <v>7.9625099999969197E-4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.8450799999954998E-4</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10.757046498999959</v>
-      </c>
-      <c r="H8" s="4">
+        <v>12.37126439839998</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42.792365840007498</v>
+        <v>11.61084580899994</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
         <v>1000000</v>
       </c>
       <c r="K8">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0757046498999958E-5</v>
+        <f ca="1">G8/F8</f>
+        <v>1.2371264398399979E-5</v>
       </c>
       <c r="L8">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.2792365840007498E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+        <f ca="1">H8/F8</f>
+        <v>1.161084580899994E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>100</v>
       </c>
-      <c r="C9">
-        <v>4.9477599998226597E-4</v>
-      </c>
-      <c r="D9">
-        <v>1.77830000757239E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>6.9850899999979101E-4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5.3945799993471101E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>100</v>
       </c>
-      <c r="C10">
-        <v>5.0233299998580995E-4</v>
-      </c>
-      <c r="D10">
-        <v>2.8450000099837702E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
+        <v>6.7200500000019704E-4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6.2032599998928996E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>100</v>
       </c>
-      <c r="C11">
-        <v>4.9879700000587902E-4</v>
-      </c>
-      <c r="D11">
-        <v>1.79720000596717E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
+        <v>8.8913899999987201E-4</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4.4959800004562502E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>100</v>
       </c>
-      <c r="C12">
-        <v>4.9233499998990705E-4</v>
-      </c>
-      <c r="D12">
-        <v>1.85280002187937E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>4.8290699999986499E-4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6.4822699994237999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1000</v>
       </c>
-      <c r="C13">
-        <v>8.8046430000190395E-3</v>
-      </c>
-      <c r="D13">
-        <v>3.42081999988295E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>1.02188059999996E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>7.4480719999883097E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1000</v>
       </c>
-      <c r="C14">
-        <v>6.3270789999876299E-3</v>
-      </c>
-      <c r="D14">
-        <v>2.4713899998459899E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
+        <v>9.9606819999999898E-3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>7.1006450000368204E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1000</v>
       </c>
-      <c r="C15">
-        <v>7.1377380000114902E-3</v>
-      </c>
-      <c r="D15">
-        <v>2.5427000015042701E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
+        <v>8.1287940000001006E-3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6.3482150000027096E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>1000</v>
       </c>
-      <c r="C16">
-        <v>5.4597879999960198E-3</v>
-      </c>
-      <c r="D16">
-        <v>3.2247800001641701E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>1.1570314E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5.4031059999033399E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>1000</v>
       </c>
-      <c r="C17">
-        <v>6.0283480000009604E-3</v>
-      </c>
-      <c r="D17">
-        <v>2.78150999802164E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
+        <v>1.0226400999999699E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5.7818020000013296E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>10000</v>
       </c>
-      <c r="C18">
-        <v>6.9897013000002006E-2</v>
-      </c>
-      <c r="D18">
-        <v>0.349307899974519</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
+        <v>0.24131736000000001</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6.8427281000026596E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>10000</v>
       </c>
-      <c r="C19">
-        <v>6.7703108999978598E-2</v>
-      </c>
-      <c r="D19">
-        <v>0.35078880001674401</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <v>0.16480768899999901</v>
+      </c>
+      <c r="D19" s="5">
+        <v>6.8009300999960901E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>10000</v>
       </c>
-      <c r="C20">
-        <v>7.0124384999985495E-2</v>
-      </c>
-      <c r="D20">
-        <v>0.38842699999804597</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>0.197545691999999</v>
+      </c>
+      <c r="D20" s="5">
+        <v>7.1646035000071606E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>10000</v>
       </c>
-      <c r="C21">
-        <v>6.9299188000002204E-2</v>
-      </c>
-      <c r="D21">
-        <v>0.32721290001063602</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
+        <v>0.104545227</v>
+      </c>
+      <c r="D21" s="5">
+        <v>7.1117078000042896E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>10000</v>
       </c>
-      <c r="C22">
-        <v>7.0141842999987603E-2</v>
-      </c>
-      <c r="D22">
-        <v>0.31909990002168298</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>9.4725024999999796E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>7.0786004000069597E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>100000</v>
       </c>
-      <c r="C23">
-        <v>0.93073089699998901</v>
-      </c>
-      <c r="D23">
-        <v>3.6295223000051902</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="5">
+        <v>1.1131103470000001</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.83955120699999897</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>100000</v>
       </c>
-      <c r="C24">
-        <v>0.86424835900001495</v>
-      </c>
-      <c r="D24">
-        <v>3.1963652000122198</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="5">
+        <v>1.01832627</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.846633634999989</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>100000</v>
       </c>
-      <c r="C25">
-        <v>0.83493891099999396</v>
-      </c>
-      <c r="D25">
-        <v>3.8331527000118499</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
+        <v>1.0116268100000001</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1.5465439140000301</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>100000</v>
       </c>
-      <c r="C26">
-        <v>0.83439596700000596</v>
-      </c>
-      <c r="D26">
-        <v>5.4848573000053804</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="5">
+        <v>1.0058081780000001</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.5400350439999699</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>100000</v>
       </c>
-      <c r="C27">
-        <v>0.83062137699999905</v>
-      </c>
-      <c r="D27">
-        <v>5.4262934999715</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="5">
+        <v>0.91838468199999901</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.0677384769999201</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>1000000</v>
       </c>
-      <c r="C28">
-        <v>10.5973799129999</v>
-      </c>
-      <c r="D28">
-        <v>38.5313853000116</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="5">
+        <v>11.035139708000001</v>
+      </c>
+      <c r="D28" s="5">
+        <v>10.665979178999899</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1000000</v>
       </c>
-      <c r="C29">
-        <v>11.169338310000001</v>
-      </c>
-      <c r="D29">
-        <v>33.301235399994702</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="5">
+        <v>11.515791481999999</v>
+      </c>
+      <c r="D29" s="5">
+        <v>10.093173018</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>1000000</v>
       </c>
-      <c r="C30">
-        <v>10.560239750999999</v>
-      </c>
-      <c r="D30">
-        <v>41.411904800013801</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="5">
+        <v>13.301225675</v>
+      </c>
+      <c r="D30" s="5">
+        <v>12.8318649029999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>1000000</v>
       </c>
-      <c r="C31">
-        <v>10.4379470209999</v>
-      </c>
-      <c r="D31">
-        <v>50.877761300012899</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="5">
+        <v>13.818347445000001</v>
+      </c>
+      <c r="D31" s="5">
+        <v>11.2528094099999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1000000</v>
       </c>
-      <c r="C32">
-        <v>11.0203275</v>
-      </c>
-      <c r="D32">
-        <v>49.839542400004497</v>
+      <c r="C32" s="5">
+        <v>12.1858176819999</v>
+      </c>
+      <c r="D32" s="5">
+        <v>13.210402535</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" s="5">
+        <v>5.6548000000322599E-5</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89" s="5">
+        <v>7.8567000059592802E-5</v>
+      </c>
+      <c r="H89">
+        <v>10</v>
+      </c>
+      <c r="I89" s="5">
+        <v>7.8298000000032094E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90" s="5">
+        <v>5.2012999999906303E-5</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90" s="5">
+        <v>4.7060000042620198E-5</v>
+      </c>
+      <c r="H90">
+        <v>10</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1.7867900000001399E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91" s="5">
+        <v>4.7063999999874499E-5</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91" s="5">
+        <v>6.7686999955185402E-5</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
+      </c>
+      <c r="I91" s="5">
+        <v>7.5148000000080305E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92" s="5">
+        <v>5.5179999999932498E-5</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92" s="5">
+        <v>4.74660000691073E-5</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+      <c r="I92" s="5">
+        <v>7.5910999999928496E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93" s="5">
+        <v>4.9391999999759399E-5</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93" s="5">
+        <v>4.80830000242349E-5</v>
+      </c>
+      <c r="H93">
+        <v>10</v>
+      </c>
+      <c r="I93" s="5">
+        <v>7.6143000000028493E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>100</v>
+      </c>
+      <c r="C94" s="5">
+        <v>7.9625099999969197E-4</v>
+      </c>
+      <c r="E94">
+        <v>100</v>
+      </c>
+      <c r="F94" s="5">
+        <v>4.8450799999954998E-4</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1.03028000000016E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>100</v>
+      </c>
+      <c r="C95" s="5">
+        <v>6.9850899999979101E-4</v>
+      </c>
+      <c r="E95">
+        <v>100</v>
+      </c>
+      <c r="F95" s="5">
+        <v>5.3945799993471101E-4</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="I95" s="5">
+        <v>1.47374399999988E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>100</v>
+      </c>
+      <c r="C96" s="5">
+        <v>6.7200500000019704E-4</v>
+      </c>
+      <c r="E96">
+        <v>100</v>
+      </c>
+      <c r="F96" s="5">
+        <v>6.2032599998928996E-4</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96" s="5">
+        <v>1.2671639999999301E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>100</v>
+      </c>
+      <c r="C97" s="5">
+        <v>8.8913899999987201E-4</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
+      </c>
+      <c r="F97" s="5">
+        <v>4.4959800004562502E-4</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97" s="5">
+        <v>1.7526859999998901E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>100</v>
+      </c>
+      <c r="C98" s="5">
+        <v>4.8290699999986499E-4</v>
+      </c>
+      <c r="E98">
+        <v>100</v>
+      </c>
+      <c r="F98" s="5">
+        <v>6.4822699994237999E-4</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="I98" s="5">
+        <v>1.2593709999999499E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>1000</v>
+      </c>
+      <c r="C99" s="5">
+        <v>1.02188059999996E-2</v>
+      </c>
+      <c r="E99">
+        <v>1000</v>
+      </c>
+      <c r="F99" s="5">
+        <v>7.4480719999883097E-3</v>
+      </c>
+      <c r="H99">
+        <v>1000</v>
+      </c>
+      <c r="I99" s="5">
+        <v>1.18499949999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>1000</v>
+      </c>
+      <c r="C100" s="5">
+        <v>9.9606819999999898E-3</v>
+      </c>
+      <c r="E100">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="5">
+        <v>7.1006450000368204E-3</v>
+      </c>
+      <c r="H100">
+        <v>1000</v>
+      </c>
+      <c r="I100" s="5">
+        <v>1.57256099999998E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>1000</v>
+      </c>
+      <c r="C101" s="5">
+        <v>8.1287940000001006E-3</v>
+      </c>
+      <c r="E101">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="5">
+        <v>6.3482150000027096E-3</v>
+      </c>
+      <c r="H101">
+        <v>1000</v>
+      </c>
+      <c r="I101" s="5">
+        <v>1.1176435999999901E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>1000</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1.1570314E-2</v>
+      </c>
+      <c r="E102">
+        <v>1000</v>
+      </c>
+      <c r="F102" s="5">
+        <v>5.4031059999033399E-3</v>
+      </c>
+      <c r="H102">
+        <v>1000</v>
+      </c>
+      <c r="I102" s="5">
+        <v>1.1736909999999901E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>1000</v>
+      </c>
+      <c r="C103" s="5">
+        <v>1.0226400999999699E-2</v>
+      </c>
+      <c r="E103">
+        <v>1000</v>
+      </c>
+      <c r="F103" s="5">
+        <v>5.7818020000013296E-3</v>
+      </c>
+      <c r="H103">
+        <v>1000</v>
+      </c>
+      <c r="I103" s="5">
+        <v>1.29376220000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>10000</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0.24131736000000001</v>
+      </c>
+      <c r="E104">
+        <v>10000</v>
+      </c>
+      <c r="F104" s="5">
+        <v>6.8427281000026596E-2</v>
+      </c>
+      <c r="H104">
+        <v>10000</v>
+      </c>
+      <c r="I104" s="5">
+        <v>0.15896191500000001</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>10000</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0.16480768899999901</v>
+      </c>
+      <c r="E105">
+        <v>10000</v>
+      </c>
+      <c r="F105" s="5">
+        <v>6.8009300999960901E-2</v>
+      </c>
+      <c r="H105">
+        <v>10000</v>
+      </c>
+      <c r="I105" s="5">
+        <v>0.18410247399999899</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>10000</v>
+      </c>
+      <c r="C106" s="5">
+        <v>0.197545691999999</v>
+      </c>
+      <c r="E106">
+        <v>10000</v>
+      </c>
+      <c r="F106" s="5">
+        <v>7.1646035000071606E-2</v>
+      </c>
+      <c r="H106">
+        <v>10000</v>
+      </c>
+      <c r="I106" s="5">
+        <v>0.159133784999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>10000</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0.104545227</v>
+      </c>
+      <c r="E107">
+        <v>10000</v>
+      </c>
+      <c r="F107" s="5">
+        <v>7.1117078000042896E-2</v>
+      </c>
+      <c r="H107">
+        <v>10000</v>
+      </c>
+      <c r="I107" s="5">
+        <v>0.149996144</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>10000</v>
+      </c>
+      <c r="C108" s="5">
+        <v>9.4725024999999796E-2</v>
+      </c>
+      <c r="E108">
+        <v>10000</v>
+      </c>
+      <c r="F108" s="5">
+        <v>7.0786004000069597E-2</v>
+      </c>
+      <c r="H108">
+        <v>10000</v>
+      </c>
+      <c r="I108" s="5">
+        <v>0.14288584200000001</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>100000</v>
+      </c>
+      <c r="C109" s="5">
+        <v>1.1131103470000001</v>
+      </c>
+      <c r="E109">
+        <v>100000</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0.83955120699999897</v>
+      </c>
+      <c r="H109">
+        <v>100000</v>
+      </c>
+      <c r="I109" s="5">
+        <v>1.754662229</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>100000</v>
+      </c>
+      <c r="C110" s="5">
+        <v>1.01832627</v>
+      </c>
+      <c r="E110">
+        <v>100000</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0.846633634999989</v>
+      </c>
+      <c r="H110">
+        <v>100000</v>
+      </c>
+      <c r="I110" s="5">
+        <v>1.6412305089999899</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>100000</v>
+      </c>
+      <c r="C111" s="5">
+        <v>1.0116268100000001</v>
+      </c>
+      <c r="E111">
+        <v>100000</v>
+      </c>
+      <c r="F111" s="5">
+        <v>1.5465439140000301</v>
+      </c>
+      <c r="H111">
+        <v>100000</v>
+      </c>
+      <c r="I111" s="5">
+        <v>1.64326917899999</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>100000</v>
+      </c>
+      <c r="C112" s="5">
+        <v>1.0058081780000001</v>
+      </c>
+      <c r="E112">
+        <v>100000</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1.5400350439999699</v>
+      </c>
+      <c r="H112">
+        <v>100000</v>
+      </c>
+      <c r="I112" s="5">
+        <v>1.5887135889999899</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>100000</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0.91838468199999901</v>
+      </c>
+      <c r="E113">
+        <v>100000</v>
+      </c>
+      <c r="F113" s="5">
+        <v>1.0677384769999201</v>
+      </c>
+      <c r="H113">
+        <v>100000</v>
+      </c>
+      <c r="I113" s="5">
+        <v>1.47252882</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>1000000</v>
+      </c>
+      <c r="C114" s="5">
+        <v>11.035139708000001</v>
+      </c>
+      <c r="E114">
+        <v>1000000</v>
+      </c>
+      <c r="F114" s="5">
+        <v>10.665979178999899</v>
+      </c>
+      <c r="H114">
+        <v>1000000</v>
+      </c>
+      <c r="I114" s="5">
+        <v>17.575109803</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>1000000</v>
+      </c>
+      <c r="C115" s="5">
+        <v>11.515791481999999</v>
+      </c>
+      <c r="E115">
+        <v>1000000</v>
+      </c>
+      <c r="F115" s="5">
+        <v>10.093173018</v>
+      </c>
+      <c r="H115">
+        <v>1000000</v>
+      </c>
+      <c r="I115" s="5">
+        <v>20.7916817609999</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>1000000</v>
+      </c>
+      <c r="C116" s="5">
+        <v>13.301225675</v>
+      </c>
+      <c r="E116">
+        <v>1000000</v>
+      </c>
+      <c r="F116" s="5">
+        <v>12.8318649029999</v>
+      </c>
+      <c r="H116">
+        <v>1000000</v>
+      </c>
+      <c r="I116" s="5">
+        <v>21.197060172</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>1000000</v>
+      </c>
+      <c r="C117" s="5">
+        <v>13.818347445000001</v>
+      </c>
+      <c r="E117">
+        <v>1000000</v>
+      </c>
+      <c r="F117" s="5">
+        <v>11.2528094099999</v>
+      </c>
+      <c r="H117">
+        <v>1000000</v>
+      </c>
+      <c r="I117" s="5">
+        <v>16.751388449</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>1000000</v>
+      </c>
+      <c r="C118" s="5">
+        <v>12.1858176819999</v>
+      </c>
+      <c r="E118">
+        <v>1000000</v>
+      </c>
+      <c r="F118" s="5">
+        <v>13.210402535</v>
+      </c>
+      <c r="H118">
+        <v>1000000</v>
+      </c>
+      <c r="I118" s="5">
+        <v>17.829464767999902</v>
       </c>
     </row>
   </sheetData>
